--- a/resources/vocabulary/possessive-pronouns.xlsx
+++ b/resources/vocabulary/possessive-pronouns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arana/Dropbox/personal-projects/education/languages/deutsch/resources/vocabulary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825AAF10-8719-1E4C-844E-0F95261171F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014A8EB3-E8FB-3343-9F9D-A11A7A7ED27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="possessive" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>ich</t>
   </si>
@@ -252,6 +252,36 @@
         <family val="2"/>
       </rPr>
       <t>es</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dein</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dein</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>en</t>
     </r>
   </si>
 </sst>
@@ -878,7 +908,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -967,7 +997,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -999,7 +1029,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
